--- a/Examples/Data/Documents/Excel.xlsx
+++ b/Examples/Data/Documents/Excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,9 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>hail hydra</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>paws</t>
+  </si>
+  <si>
+    <t>pores</t>
+  </si>
+  <si>
+    <t>pours</t>
+  </si>
+  <si>
+    <t>braze</t>
   </si>
 </sst>
 </file>
@@ -114,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,7 +167,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,9 +376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -369,6 +389,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Examples/Data/Documents/Excel.xlsx
+++ b/Examples/Data/Documents/Excel.xlsx
@@ -379,7 +379,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Examples/Data/Documents/Excel.xlsx
+++ b/Examples/Data/Documents/Excel.xlsx
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +419,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Examples/Data/Documents/Excel.xlsx
+++ b/Examples/Data/Documents/Excel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>hail hydra</t>
   </si>
@@ -35,12 +35,18 @@
   </si>
   <si>
     <t>braze</t>
+  </si>
+  <si>
+    <t>return</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,8 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,9 +174,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,6 +226,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -375,66 +418,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>41665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>